--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2098.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2098.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.187062697663919</v>
+        <v>3.40717887878418</v>
       </c>
       <c r="B1">
-        <v>2.896833308259185</v>
+        <v>2.548656225204468</v>
       </c>
       <c r="C1">
-        <v>2.573478040931928</v>
+        <v>2.144224882125854</v>
       </c>
       <c r="D1">
-        <v>2.830513958260138</v>
+        <v>2.229082345962524</v>
       </c>
       <c r="E1">
-        <v>3.142690269516013</v>
+        <v>2.563613176345825</v>
       </c>
     </row>
   </sheetData>
